--- a/validation/quercus/simulation_sp/produced_at_night_multi_quercus.xlsx
+++ b/validation/quercus/simulation_sp/produced_at_night_multi_quercus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Nitrate__Ibark_Day_sp_exchange</t>
+          <t>L-Glutamate__Leaf_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0001046541910376675</v>
+        <v>-0.15</v>
       </c>
       <c r="C2" t="n">
-        <v>-22.21819806262396</v>
+        <v>-44.84272613958672</v>
       </c>
       <c r="D2" t="n">
-        <v>20.15243871201996</v>
+        <v>43.38661379847885</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -477,114 +477,19 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Glycine__Leaf_Day_sp_exchange</t>
+          <t>L-Glutamate__Phellogen_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.212028652998228e-05</v>
+        <v>-0.0277777777777779</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.09830767948323</v>
+        <v>-41.17279541871761</v>
       </c>
       <c r="D3" t="n">
-        <v>12.57726666280104</v>
+        <v>45.2925391129859</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Glycine__Ibark_Day_sp_exchange</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.0001527439091064309</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-11.91832008727249</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.75297752664128</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Glycine__Phellogen_Day_sp_exchange</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-2.205634477926528e-05</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-10.85935896507569</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.81803434616059</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>L-Glutamate__Leaf_Day_sp_exchange</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.1501125028793023</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-44.81902996954752</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43.36319241013467</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>L-Glutamate__Phellogen_Day_sp_exchange</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.0276208244202882</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-41.15044964904302</v>
-      </c>
-      <c r="D7" t="n">
-        <v>45.26864160105739</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Citrate__Leaf_Day_sp_exchange</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.153431786151155e-05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-11.35435956198577</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.43034066049409</v>
-      </c>
-      <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/validation/quercus/simulation_sp/produced_at_night_multi_quercus.xlsx
+++ b/validation/quercus/simulation_sp/produced_at_night_multi_quercus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L-Glutamate__Leaf_Day_sp_exchange</t>
+          <t>Sucrose__Phellogen_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.15</v>
+        <v>-0.02275250248137701</v>
       </c>
       <c r="C2" t="n">
-        <v>-44.84272613958672</v>
+        <v>-0.02573249889733798</v>
       </c>
       <c r="D2" t="n">
-        <v>43.38661379847885</v>
+        <v>0.02524392192411239</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -477,20 +477,305 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>Nitrate__Ibark_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2094768778078743</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.2095535822389241</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.2094694318056584</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>L-Leucine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.002733808561680673</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.00288651637994059</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.002709062279195087</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>L-Leucine__Ibark_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.005245730614982</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.006362180098646557</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.004125825124105065</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>L-Threonine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.006957364279378033</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.007034642068470099</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.006944911409846659</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>L-Valine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.008344632411180001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.008362952132431756</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.008337433269960105</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>L-Valine__Ibark_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.003496901480776</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.004241147259572694</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.002749189943002829</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>L-Glutamine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.005197582981536614</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.005197582979205357</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.005197582985947076</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>L-Glutamine__Ibark_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.006012063502197787</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.01023537158539439</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.001788755371801476</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Glycine__Ibark_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1800205736429344</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1812062262971476</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.007306397149129167</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Glycine__Phellogen_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.01642057489156097</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.01711900264407966</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.01640512034329712</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>L-Glutamate__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.3281353227496608</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.3281860887639729</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3281038887883893</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>L-Glutamate__Phellogen_Day_sp_exchange</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.0277777777777779</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-41.17279541871761</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.2925391129859</v>
-      </c>
-      <c r="E3" t="b">
+      <c r="B14" t="n">
+        <v>-0.006748869194980841</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.1071260099573368</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.002446565458976557</v>
+      </c>
+      <c r="E14" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>L-Asparagine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.005459338897155001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.005461144685913809</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.005454830852780226</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>L-Asparagine__Ibark_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.002287790442146</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.00277470053989251</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.001800880345507929</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>L-Serine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.09109761126615967</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.250490096289229</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.0397291287589565</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Citrate__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.006637622814004108</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.006676289670016933</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.006596423716057398</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/validation/quercus/simulation_sp/produced_at_night_multi_quercus.xlsx
+++ b/validation/quercus/simulation_sp/produced_at_night_multi_quercus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02275250248137701</v>
+        <v>-0.02371014509725695</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02573249889733798</v>
+        <v>-0.02800043639600445</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02524392192411239</v>
+        <v>0.02565806070686093</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2094768778078743</v>
+        <v>-0.2304245655886423</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2095535822389241</v>
+        <v>-0.2304310523523641</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2094694318056584</v>
+        <v>-0.2304103386042093</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.002733808561680673</v>
+        <v>-0.00300718951407934</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00288651637994059</v>
+        <v>-0.003212557730932339</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002709062279195087</v>
+        <v>-0.002953699178742782</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005245730614982</v>
+        <v>-0.0057703036764802</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.006362180098646557</v>
+        <v>-0.006998398981867556</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.004125825124105065</v>
+        <v>-0.004534755817959456</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.006957364279378033</v>
+        <v>-0.007653100707315835</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.007034642068470099</v>
+        <v>-0.007658336329263271</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.006944911409846659</v>
+        <v>-0.007632092013061378</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.008344632411180001</v>
+        <v>-0.009179095652298</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.008362952132431756</v>
+        <v>-0.009180723707159286</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.008337433269960105</v>
+        <v>-0.009168271601245401</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.003496901480776</v>
+        <v>-0.0038465916288536</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.004241147259572694</v>
+        <v>-0.004665261220309521</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.002749189943002829</v>
+        <v>-0.003022710130898713</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.005197582981536614</v>
+        <v>-0.005717341279690275</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.005197582979205357</v>
+        <v>-0.00571734128654498</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005197582985947076</v>
+        <v>-0.005717341263579607</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.006012063502197787</v>
+        <v>-0.006613269852417414</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01023537158539439</v>
+        <v>-0.01125890894495702</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.001788755371801476</v>
+        <v>-0.001967630896746799</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1800205736429344</v>
+        <v>-0.1980226309911896</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1812062262971476</v>
+        <v>-0.1980420776586849</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.007306397149129167</v>
+        <v>-0.01521694661392164</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01642057489156097</v>
+        <v>-0.01806263238071845</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01711900264407966</v>
+        <v>-0.01809652915349802</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01640512034329712</v>
+        <v>-0.01805601071758732</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3281353227496608</v>
+        <v>-0.3459488551093048</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3281860887639729</v>
+        <v>-0.3461064285972724</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3281038887883893</v>
+        <v>-0.3459281046215601</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -686,36 +686,36 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>L-Glutamate__Phellogen_Day_sp_exchange</t>
+          <t>L-Asparagine__Leaf_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.006748869194980841</v>
+        <v>-0.0060052727868705</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1071260099573368</v>
+        <v>-0.006017259009205319</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002446565458976557</v>
+        <v>-0.005993409558369541</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>L-Asparagine__Leaf_Day_sp_exchange</t>
+          <t>L-Asparagine__Ibark_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.005459338897155001</v>
+        <v>-0.0025165694863606</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.005461144685913809</v>
+        <v>-0.003052170600647712</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.005454830852780226</v>
+        <v>-0.001980968368070639</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -724,17 +724,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>L-Asparagine__Ibark_Day_sp_exchange</t>
+          <t>L-Serine__Leaf_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.002287790442146</v>
+        <v>-0.1002073721757014</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00277470053989251</v>
+        <v>-0.2755390577924466</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.001800880345507929</v>
+        <v>-0.04719036363783607</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -743,38 +743,19 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>L-Serine__Leaf_Day_sp_exchange</t>
+          <t>Citrate__Leaf_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09109761126615967</v>
+        <v>-0.007301385095231733</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.250490096289229</v>
+        <v>-0.007317797398071424</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0397291287589565</v>
+        <v>-0.005635533610203441</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Citrate__Leaf_Day_sp_exchange</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.006637622814004108</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.006676289670016933</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.006596423716057398</v>
-      </c>
-      <c r="E18" t="b">
         <v>1</v>
       </c>
     </row>
